--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H2">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>81.09406040752799</v>
+        <v>104.9436658860675</v>
       </c>
       <c r="R2">
-        <v>729.8465436677519</v>
+        <v>944.492992974608</v>
       </c>
       <c r="S2">
-        <v>0.03311116225885766</v>
+        <v>0.03661139746303954</v>
       </c>
       <c r="T2">
-        <v>0.03311116225885766</v>
+        <v>0.03661139746303955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H3">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>349.219184038443</v>
+        <v>378.8727808973202</v>
       </c>
       <c r="R3">
-        <v>3142.972656345987</v>
+        <v>3409.855028075882</v>
       </c>
       <c r="S3">
-        <v>0.1425881625422885</v>
+        <v>0.1321762666878633</v>
       </c>
       <c r="T3">
-        <v>0.1425881625422885</v>
+        <v>0.1321762666878633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H4">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>21.091023283959</v>
+        <v>35.13299077169934</v>
       </c>
       <c r="R4">
-        <v>189.819209555631</v>
+        <v>316.196916945294</v>
       </c>
       <c r="S4">
-        <v>0.008611583766444173</v>
+        <v>0.01225674630619847</v>
       </c>
       <c r="T4">
-        <v>0.008611583766444175</v>
+        <v>0.01225674630619847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H5">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>26.293447556172</v>
+        <v>32.05223845527978</v>
       </c>
       <c r="R5">
-        <v>236.641028005548</v>
+        <v>288.470146097518</v>
       </c>
       <c r="S5">
-        <v>0.01073576293999895</v>
+        <v>0.01118197303056249</v>
       </c>
       <c r="T5">
-        <v>0.01073576293999895</v>
+        <v>0.01118197303056249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H6">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I6">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J6">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>22.628703598389</v>
+        <v>43.56842709082111</v>
       </c>
       <c r="R6">
-        <v>203.658332385501</v>
+        <v>392.11584381739</v>
       </c>
       <c r="S6">
-        <v>0.009239427311797301</v>
+        <v>0.0151995929205793</v>
       </c>
       <c r="T6">
-        <v>0.009239427311797301</v>
+        <v>0.0151995929205793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I7">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J7">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N7">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q7">
-        <v>172.0553535560658</v>
+        <v>205.2296302054151</v>
       </c>
       <c r="R7">
-        <v>1548.498182004592</v>
+        <v>1847.066671848736</v>
       </c>
       <c r="S7">
-        <v>0.07025117129997803</v>
+        <v>0.07159787586227834</v>
       </c>
       <c r="T7">
-        <v>0.07025117129997802</v>
+        <v>0.07159787586227834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I8">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J8">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P8">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q8">
-        <v>740.9300986576002</v>
+        <v>740.9300986576003</v>
       </c>
       <c r="R8">
-        <v>6668.370887918401</v>
+        <v>6668.370887918402</v>
       </c>
       <c r="S8">
-        <v>0.3025259383465993</v>
+        <v>0.2584861707016455</v>
       </c>
       <c r="T8">
-        <v>0.3025259383465992</v>
+        <v>0.2584861707016455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I9">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J9">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N9">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q9">
-        <v>44.74832619978066</v>
+        <v>68.70667841843867</v>
       </c>
       <c r="R9">
-        <v>402.734935798026</v>
+        <v>618.360105765948</v>
       </c>
       <c r="S9">
-        <v>0.01827099398115333</v>
+        <v>0.02396950297766045</v>
       </c>
       <c r="T9">
-        <v>0.01827099398115333</v>
+        <v>0.02396950297766045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I10">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J10">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N10">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O10">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P10">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q10">
-        <v>55.78618696302311</v>
+        <v>62.68190642943956</v>
       </c>
       <c r="R10">
-        <v>502.075682667208</v>
+        <v>564.137157864956</v>
       </c>
       <c r="S10">
-        <v>0.02277781478758162</v>
+        <v>0.0218676579539417</v>
       </c>
       <c r="T10">
-        <v>0.02277781478758161</v>
+        <v>0.0218676579539417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I11">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J11">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N11">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O11">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P11">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q11">
-        <v>48.01078622244955</v>
+        <v>85.20316214404222</v>
       </c>
       <c r="R11">
-        <v>432.097076002046</v>
+        <v>766.8284592963799</v>
       </c>
       <c r="S11">
-        <v>0.01960307480964762</v>
+        <v>0.02972458421406709</v>
       </c>
       <c r="T11">
-        <v>0.01960307480964762</v>
+        <v>0.02972458421406709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H12">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N12">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q12">
-        <v>48.55693442517244</v>
+        <v>60.74936290095822</v>
       </c>
       <c r="R12">
-        <v>437.012409826552</v>
+        <v>546.7442661086239</v>
       </c>
       <c r="S12">
-        <v>0.01982607020125663</v>
+        <v>0.02119345700395137</v>
       </c>
       <c r="T12">
-        <v>0.01982607020125663</v>
+        <v>0.02119345700395137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H13">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P13">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q13">
-        <v>209.1030210369485</v>
+        <v>219.3203359697215</v>
       </c>
       <c r="R13">
-        <v>1881.927189332537</v>
+        <v>1973.883023727493</v>
       </c>
       <c r="S13">
-        <v>0.08537794289221463</v>
+        <v>0.07651366020158121</v>
       </c>
       <c r="T13">
-        <v>0.08537794289221463</v>
+        <v>0.07651366020158121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H14">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I14">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J14">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N14">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q14">
-        <v>12.62873543897567</v>
+        <v>20.33764294553134</v>
       </c>
       <c r="R14">
-        <v>113.658618950781</v>
+        <v>183.038786509782</v>
       </c>
       <c r="S14">
-        <v>0.005156383909533428</v>
+        <v>0.007095135500112949</v>
       </c>
       <c r="T14">
-        <v>0.005156383909533429</v>
+        <v>0.007095135500112948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H15">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I15">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J15">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N15">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O15">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P15">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q15">
-        <v>15.74380666574978</v>
+        <v>18.55426956231711</v>
       </c>
       <c r="R15">
-        <v>141.694259991748</v>
+        <v>166.988426060854</v>
       </c>
       <c r="S15">
-        <v>0.006428285061347521</v>
+        <v>0.006472975113332238</v>
       </c>
       <c r="T15">
-        <v>0.006428285061347521</v>
+        <v>0.006472975113332237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H16">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I16">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J16">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N16">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O16">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P16">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q16">
-        <v>13.54945690512789</v>
+        <v>25.22071404707444</v>
       </c>
       <c r="R16">
-        <v>121.945112146151</v>
+        <v>226.98642642367</v>
       </c>
       <c r="S16">
-        <v>0.005532319677304524</v>
+        <v>0.008798678590869526</v>
       </c>
       <c r="T16">
-        <v>0.005532319677304523</v>
+        <v>0.008798678590869524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H17">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N17">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q17">
-        <v>47.36964796545332</v>
+        <v>65.55157240332267</v>
       </c>
       <c r="R17">
-        <v>426.3268316890799</v>
+        <v>589.964151629904</v>
       </c>
       <c r="S17">
-        <v>0.01934129444310684</v>
+        <v>0.02286879013918532</v>
       </c>
       <c r="T17">
-        <v>0.01934129444310684</v>
+        <v>0.02286879013918532</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H18">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I18">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J18">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N18">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O18">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P18">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q18">
-        <v>203.9901532560116</v>
+        <v>236.6575087590504</v>
       </c>
       <c r="R18">
-        <v>1835.911379304105</v>
+        <v>2129.917578831453</v>
       </c>
       <c r="S18">
-        <v>0.08329033013917297</v>
+        <v>0.08256203023436261</v>
       </c>
       <c r="T18">
-        <v>0.08329033013917296</v>
+        <v>0.08256203023436259</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H19">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I19">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J19">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N19">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q19">
-        <v>12.319944804485</v>
+        <v>21.945324368758</v>
       </c>
       <c r="R19">
-        <v>110.879503240365</v>
+        <v>197.507919318822</v>
       </c>
       <c r="S19">
-        <v>0.005030302951800463</v>
+        <v>0.007656002733811433</v>
       </c>
       <c r="T19">
-        <v>0.005030302951800463</v>
+        <v>0.007656002733811431</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H20">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I20">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J20">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N20">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O20">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P20">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q20">
-        <v>15.35884808671333</v>
+        <v>20.02097613085934</v>
       </c>
       <c r="R20">
-        <v>138.22963278042</v>
+        <v>180.188785177734</v>
       </c>
       <c r="S20">
-        <v>0.0062711043022468</v>
+        <v>0.006984660851477195</v>
       </c>
       <c r="T20">
-        <v>0.0062711043022468</v>
+        <v>0.006984660851477193</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H21">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I21">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J21">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N21">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O21">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P21">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q21">
-        <v>13.21815331460166</v>
+        <v>27.21440001956334</v>
       </c>
       <c r="R21">
-        <v>118.963379831415</v>
+        <v>244.92960017607</v>
       </c>
       <c r="S21">
-        <v>0.005397046552642517</v>
+        <v>0.009494210130948571</v>
       </c>
       <c r="T21">
-        <v>0.005397046552642516</v>
+        <v>0.009494210130948569</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H22">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I22">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J22">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N22">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q22">
-        <v>47.88718849383466</v>
+        <v>69.45886195761599</v>
       </c>
       <c r="R22">
-        <v>430.9846964445119</v>
+        <v>625.129757618544</v>
       </c>
       <c r="S22">
-        <v>0.01955260915992645</v>
+        <v>0.02423191510406619</v>
       </c>
       <c r="T22">
-        <v>0.01955260915992645</v>
+        <v>0.02423191510406619</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H23">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I23">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J23">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N23">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O23">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P23">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q23">
-        <v>206.2188624872413</v>
+        <v>250.763797563687</v>
       </c>
       <c r="R23">
-        <v>1855.969762385172</v>
+        <v>2256.874178073183</v>
       </c>
       <c r="S23">
-        <v>0.08420032468886268</v>
+        <v>0.08748325098450931</v>
       </c>
       <c r="T23">
-        <v>0.08420032468886268</v>
+        <v>0.08748325098450929</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H24">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I24">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J24">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N24">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q24">
-        <v>12.454547256004</v>
+        <v>23.25340491553801</v>
       </c>
       <c r="R24">
-        <v>112.090925304036</v>
+        <v>209.280644239842</v>
       </c>
       <c r="S24">
-        <v>0.005085261891953271</v>
+        <v>0.008112349064078048</v>
       </c>
       <c r="T24">
-        <v>0.005085261891953272</v>
+        <v>0.008112349064078046</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H25">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I25">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J25">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N25">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O25">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P25">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q25">
-        <v>15.52665229669866</v>
+        <v>21.214353315186</v>
       </c>
       <c r="R25">
-        <v>139.739870670288</v>
+        <v>190.929179836674</v>
       </c>
       <c r="S25">
-        <v>0.006339619707649142</v>
+        <v>0.007400990946769845</v>
       </c>
       <c r="T25">
-        <v>0.006339619707649142</v>
+        <v>0.007400990946769843</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H26">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I26">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J26">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N26">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O26">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P26">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q26">
-        <v>13.36256920841733</v>
+        <v>28.83655090053</v>
       </c>
       <c r="R26">
-        <v>120.263122875756</v>
+        <v>259.52895810477</v>
       </c>
       <c r="S26">
-        <v>0.005456012376635768</v>
+        <v>0.01006012528310808</v>
       </c>
       <c r="T26">
-        <v>0.005456012376635768</v>
+        <v>0.01006012528310807</v>
       </c>
     </row>
   </sheetData>
